--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-dk-3/variables/</t>
+          <t>http://ontology.deic.dk/cv/DTUbib</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/test2/variables/</t>
+          <t>http://ontology.deic.dk/cv/DTUbib</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Test2 vocabulary</t>
+          <t>Vocab DTUbib</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Test for showcase purposes</t>
+          <t>Test Vocabulary for M4M workshop</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1056,21 +1056,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:Test</t>
+          <t>vars:test</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Test for technical setup</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1090,26 +1086,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:Computerscientist</t>
+          <t>vars:test2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Computerscientist</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>person that studied computerscience</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>vars:Computerscience</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1128,21 +1116,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:Computerscience</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Computerscience</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>studies of computers</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://ontology.deic.dk/cv/DTUbib</t>
+          <t>http://ontology.deic.dk/cv/M4M-MIK-attempt1/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://ontology.deic.dk/cv/DTUbib</t>
+          <t>http://purl.org/M4M-MIK-attempt1/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vocab DTUbib</t>
+          <t>Agro Ontology</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Test Vocabulary for M4M workshop</t>
+          <t>Potato Blight disease observation</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -815,10 +815,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hannah</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>https://orcid.org/0000-0002-6384-8944</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Minka Karaivanova</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -840,13 +844,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-4093-2147</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Eva Overby Bach</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -870,13 +878,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-0721-551X</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Ying Wang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -900,15 +912,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -930,13 +938,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -960,11 +972,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -986,64 +1006,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>2022-06-01T19:03:28Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1056,15 +1040,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vars:test</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>2022-06-02T19:03:28Z</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1086,14 +1074,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:test2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1116,20 +1100,64 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1142,13 +1170,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>vars:SampleID</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SampleID</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Number given to the sample after institutes nameing standard</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1168,13 +1204,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>vars:ObservationID</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ObservationID</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Running number</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1194,13 +1238,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>vars:CropSeasonYear</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CropSeasonYear</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1220,14 +1272,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>vars:CountryCode</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CountryCode</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
+</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1246,14 +1311,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>vars:GrowthStageName</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GrowthStageName</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1272,10 +1345,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>vars:SeverityCategoryName</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SeverityCategoryName</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1298,13 +1375,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>vars:Disease</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Disease</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Crop Disease name</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1324,15 +1409,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>vars:PotatoLateBlight</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PotatoLateBlight</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1350,15 +1447,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>vars:PotatoEarlyBlight</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PotatoEarlyBlight</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Potato disease caused by the fungus Alternaria solani</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2907,6 +3016,84 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1485,15 +1485,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>vars:PotatoMIK</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PotatoMIK</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -916,7 +916,11 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>zzzz</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -915,10 +915,14 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-0721-551X</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>zzzz</t>
+          <t>Zzzz Zzz</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,17 +878,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-0721-551X</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ying Wang</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -912,17 +912,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-0721-551X</t>
+          <t>0.0.1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Zzzz Zzz</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -946,17 +946,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+          <t>2022-06-01T19:03:28Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -980,17 +980,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>2022-06-02T19:03:28Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1014,19 +1014,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2022-06-01T19:03:28Z</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1048,28 +1040,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-02T19:03:28Z</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1082,13 +1110,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>vars:SampleID</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SampleID</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Number given to the sample after institutes nameing standard</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1108,64 +1144,28 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>vars:ObservationID</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
+          <t>ObservationID</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Running number</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1178,19 +1178,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:SampleID</t>
+          <t>vars:CropSeasonYear</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SampleID</t>
+          <t>CropSeasonYear</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Number given to the sample after institutes nameing standard</t>
+          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1212,22 +1212,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:ObservationID</t>
+          <t>vars:CountryCode</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ObservationID</t>
+          <t>CountryCode</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Running number</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
+</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1246,22 +1251,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:CropSeasonYear</t>
+          <t>vars:GrowthStageName</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CropSeasonYear</t>
+          <t>GrowthStageName</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1280,27 +1285,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:CountryCode</t>
+          <t>vars:SeverityCategoryName</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CountryCode</t>
+          <t>SeverityCategoryName</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
-</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1319,22 +1315,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:GrowthStageName</t>
+          <t>vars:Disease</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GrowthStageName</t>
+          <t>Disease</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Crop Disease name</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1353,19 +1349,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:SeverityCategoryName</t>
+          <t>vars:PotatoLateBlight</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SeverityCategoryName</t>
+          <t>PotatoLateBlight</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1383,23 +1387,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:Disease</t>
+          <t>vars:PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Disease</t>
+          <t>PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Crop Disease name</t>
+          <t>Potato disease caused by the fungus Alternaria solani</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1417,19 +1425,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:PotatoLateBlight</t>
+          <t>vars:PotatoMIK</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PotatoLateBlight</t>
+          <t>PotatoMIK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1455,27 +1463,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:PotatoEarlyBlight</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PotatoEarlyBlight</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Potato disease caused by the fungus Alternaria solani</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1493,27 +1489,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vars:PotatoMIK</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PotatoMIK</t>
-        </is>
-      </c>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3062,58 +3046,6 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,12 +849,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4093-2147</t>
+          <t>https://orcid.org/0000-0001-5725-8297</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eva Overby Bach</t>
+          <t>Hannah Random Found</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -878,17 +878,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+          <t>https://orcid.org/0000-0003-4093-2147</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Eva Overby Bach</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -912,17 +912,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -946,17 +946,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-01T19:03:28Z</t>
+          <t>0.0.1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -980,17 +980,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-02T19:03:28Z</t>
+          <t>2022-06-01T19:03:28Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1014,11 +1014,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2022-06-02T19:03:28Z</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1040,64 +1048,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1110,28 +1074,64 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:SampleID</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SampleID</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Number given to the sample after institutes nameing standard</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1144,19 +1144,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:ObservationID</t>
+          <t>vars:SampleID</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ObservationID</t>
+          <t>SampleID</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Running number</t>
+          <t>Number given to the sample after institutes nameing standard</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1178,19 +1178,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:CropSeasonYear</t>
+          <t>vars:ObservationID</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CropSeasonYear</t>
+          <t>ObservationID</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
+          <t>Running number</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1212,27 +1212,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:CountryCode</t>
+          <t>vars:CropSeasonYear</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CountryCode</t>
+          <t>CropSeasonYear</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
-</t>
-        </is>
-      </c>
+          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1251,20 +1246,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:GrowthStageName</t>
+          <t>vars:CountryCode</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GrowthStageName</t>
+          <t>CountryCode</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
+</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1285,18 +1285,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:SeverityCategoryName</t>
+          <t>vars:GrowthStageName</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SeverityCategoryName</t>
+          <t>GrowthStageName</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1315,21 +1319,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:Disease</t>
+          <t>vars:SeverityCategoryName</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Disease</t>
+          <t>SeverityCategoryName</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Crop Disease name</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1349,27 +1349,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:PotatoLateBlight</t>
+          <t>vars:Disease</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PotatoLateBlight</t>
+          <t>Disease</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+          <t>Crop Disease name</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1387,19 +1383,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:PotatoEarlyBlight</t>
+          <t>vars:PotatoLateBlight</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PotatoEarlyBlight</t>
+          <t>PotatoLateBlight</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Potato disease caused by the fungus Alternaria solani</t>
+          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1425,19 +1421,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:PotatoMIK</t>
+          <t>vars:PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PotatoMIK</t>
+          <t>PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
+          <t>Potato disease caused by the fungus Alternaria solani</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1463,15 +1459,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>vars:PotatoMIK</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PotatoMIK</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3046,6 +3054,32 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://ontology.deic.dk/cv/M4M-MIK-attempt1/</t>
+          <t>http://ontology.deic.dk/cv/M4M-MIK-attempt1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,12 +849,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-5725-8297</t>
+          <t>https://orcid.org/0000-0003-4093-2147</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hannah Random Found</t>
+          <t>Eva Overby Bach</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -878,17 +878,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4093-2147</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eva Overby Bach</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -912,17 +912,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+          <t>0.0.1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -946,17 +946,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>2022-06-01T19:03:28Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -980,17 +980,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-01T19:03:28Z</t>
+          <t>2022-06-02T19:03:28Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1014,19 +1014,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2022-06-02T19:03:28Z</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1048,20 +1040,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1074,64 +1110,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>vars:SampleID</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
+          <t>SampleID</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Number given to the sample after institutes nameing standard</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1144,19 +1144,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:SampleID</t>
+          <t>vars:ObservationID</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SampleID</t>
+          <t>ObservationID</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Number given to the sample after institutes nameing standard</t>
+          <t>Running number</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1178,19 +1178,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:ObservationID</t>
+          <t>vars:CropSeasonYear</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ObservationID</t>
+          <t>CropSeasonYear</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Running number</t>
+          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1212,22 +1212,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:CropSeasonYear</t>
+          <t>vars:CountryCode</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CropSeasonYear</t>
+          <t>CountryCode</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
+</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1246,25 +1251,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:CountryCode</t>
+          <t>vars:GrowthStageName</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CountryCode</t>
+          <t>GrowthStageName</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
-</t>
+          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1285,22 +1285,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:GrowthStageName</t>
+          <t>vars:SeverityCategoryName</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GrowthStageName</t>
+          <t>SeverityCategoryName</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1319,17 +1315,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:SeverityCategoryName</t>
+          <t>vars:Disease</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SeverityCategoryName</t>
+          <t>Disease</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Crop Disease name</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1349,23 +1349,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:Disease</t>
+          <t>vars:PotatoLateBlight</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Disease</t>
+          <t>PotatoLateBlight</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Crop Disease name</t>
+          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1383,19 +1387,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:PotatoLateBlight</t>
+          <t>vars:PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PotatoLateBlight</t>
+          <t>PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+          <t>Potato disease caused by the fungus Alternaria solani</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1421,19 +1425,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:PotatoEarlyBlight</t>
+          <t>vars:PotatoMIK</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PotatoEarlyBlight</t>
+          <t>PotatoMIK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Potato disease caused by the fungus Alternaria solani</t>
+          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1459,22 +1463,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:PotatoMIK</t>
+          <t>vars:PotatoSecondMIK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PotatoMIK</t>
+          <t>SecondMIKPotato</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>Yet another potato disease, poor potato</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Potato</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>vars:Disease</t>
@@ -3054,32 +3062,6 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,12 +849,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4093-2147</t>
+          <t>https://orcid.org/0000-0002-0454-4289</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eva Overby Bach</t>
+          <t>Hannah Mihai</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -878,17 +878,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
+          <t>https://orcid.org/0000-0003-4093-2147</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Eva Overby Bach</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -912,17 +912,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -946,17 +946,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-06-01T19:03:28Z</t>
+          <t>0.0.1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -980,17 +980,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-06-02T19:03:28Z</t>
+          <t>2022-06-01T19:03:28Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Date when vocabulary was initially created (follow https://en.wikipedia.org/wiki/ISO_8601)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1014,11 +1014,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Definition of terms (optionally properties)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2022-06-02T19:03:28Z</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1040,64 +1048,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=";")</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms (optionally properties)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1110,28 +1074,64 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vars:SampleID</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SampleID</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=";")</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Number given to the sample after institutes nameing standard</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1144,19 +1144,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vars:ObservationID</t>
+          <t>vars:SampleID</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ObservationID</t>
+          <t>SampleID</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Running number</t>
+          <t>Number given to the sample after institutes nameing standard</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1178,19 +1178,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vars:CropSeasonYear</t>
+          <t>vars:ObservationID</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CropSeasonYear</t>
+          <t>ObservationID</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
+          <t>Running number</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1212,27 +1212,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vars:CountryCode</t>
+          <t>vars:CropSeasonYear</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CountryCode</t>
+          <t>CropSeasonYear</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
-</t>
-        </is>
-      </c>
+          <t>4 digit number representing the year the disease was observed. Automatically created from the Blight Tracker App.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1251,20 +1246,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vars:GrowthStageName</t>
+          <t>vars:CountryCode</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GrowthStageName</t>
+          <t>CountryCode</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 char code as defined in the ISO standard ISO 3166-1 alpha-2 codes </t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+          <t xml:space="preserve">https://www.iso.org/obp/ui/#search
+</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1285,18 +1285,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vars:SeverityCategoryName</t>
+          <t>vars:GrowthStageName</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SeverityCategoryName</t>
+          <t>GrowthStageName</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/BBCH-scale_(potato)</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1315,21 +1319,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vars:Disease</t>
+          <t>vars:SeverityCategoryName</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Disease</t>
+          <t>SeverityCategoryName</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Crop Disease name</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1349,27 +1349,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vars:PotatoLateBlight</t>
+          <t>vars:Disease</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PotatoLateBlight</t>
+          <t>Disease</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
+          <t>Crop Disease name</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>vars:Disease</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1387,19 +1383,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vars:PotatoEarlyBlight</t>
+          <t>vars:PotatoLateBlight</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PotatoEarlyBlight</t>
+          <t>PotatoLateBlight</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Potato disease caused by the fungus Alternaria solani</t>
+          <t>Potato disease caused by the oomycete Phytophthora infestans</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1425,19 +1421,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vars:PotatoMIK</t>
+          <t>vars:PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PotatoMIK</t>
+          <t>PotatoEarlyBlight</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
+          <t>Potato disease caused by the fungus Alternaria solani</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1463,26 +1459,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vars:PotatoSecondMIK</t>
+          <t>vars:PotatoMIK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SecondMIKPotato</t>
+          <t>PotatoMIK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Yet another potato disease, poor potato</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Potato</t>
-        </is>
-      </c>
+          <t>Potato disease just made up by MIK in order to experiment new vocab</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>vars:Disease</t>
@@ -1505,15 +1497,31 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vars:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>vars:PotatoSecondMIK</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SecondMIKPotato</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yet another potato disease, poor potato</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Potato</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>vars:Disease</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3062,6 +3070,32 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vars:</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
